--- a/SOLO/요구사항정의서.xlsx
+++ b/SOLO/요구사항정의서.xlsx
@@ -19,174 +19,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+  <x:si>
+    <x:t>회원 / 비회원에게 보여지는 전체 공지글 작성, 수정, 삭제 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신고된 회원들의 목록과 신고 횟수를 보여주고 계정을 활성화 / 비활성화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 회원의 계정을 활성화 / 비활성화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문한 회원의 주문내역 및 입금상태 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매중인 상품 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 상품을 담아 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어를 통해 게시글 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품을 장바구니에 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 담은 상품 주문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 회원 정보를 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상의, 하의, 아우터, 기타 카테고리별로 게시글 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문한 회원의 배송 상태 변경 / 배송지 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 주문, 장바구니 버튼 시도시 로그인 유도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 상세보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배송 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통합검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 상세보기 시도시 로그인 유도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자유게시판 작성, 수정, 삭제 관리</x:t>
+  </x:si>
   <x:si>
     <x:t>장바구니에 담은 상품 옵션 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
     <x:t>장바구니 또는 선택한 상품 주문</x:t>
   </x:si>
   <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품을 검색하여 상품 상세보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자유게시판 작성, 수정, 삭제 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배송 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 주문, 장바구니 버튼 시도시 로그인 유도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
+    <x:t>상품 검색 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담았던 상품들을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매중인 상품 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매할 상품 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 로그인 요청</x:t>
   </x:si>
   <x:si>
     <x:t>신고 회원 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>해당 회원의 계정을 활성화 / 비활성화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문한 회원의 주문내역 및 입금상태 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문한 회원의 배송 상태 변경 / 배송지 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통합검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신고된 회원들의 목록과 신고 횟수를 보여주고 계정을 활성화 / 비활성화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상의, 하이, 아우터, 기타 카테고리별로 게시글 확인</x:t>
-  </x:si>
-  <x:si>
     <x:t>로그인, 아이디 찾기, 비밀번호 찾기, 아이디 저장 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매중인 상품 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 검색 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매할 상품 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담았던 상품들을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 로그인 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 담은 상품 주문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매중인 상품 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통합검색으로 상품 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어를 통해 게시글 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 회원 정보를 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 상품을 담아 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품을 장바구니에 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 상세보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 / 비회원에게 보여지는 전체 공지글 작성, 수정, 삭제 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 상세보기 시도시 로그인 유도</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -315,7 +309,7 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thick">
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
@@ -324,7 +318,7 @@
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thick">
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -338,7 +332,35 @@
       <x:top style="medium">
         <x:color indexed="64"/>
       </x:top>
+      <x:bottom style="thick">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thick">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color indexed="64"/>
+      </x:top>
       <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thick">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thick">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -346,20 +368,6 @@
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
@@ -375,20 +383,6 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thick">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thick">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thick">
@@ -404,7 +398,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -429,26 +426,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -468,26 +452,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -507,13 +504,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1174,328 +1171,328 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:D35"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H23" activeCellId="0" sqref="H23:H23"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N25" activeCellId="0" sqref="N25:N25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.00390625" customWidth="1"/>
-    <x:col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <x:col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <x:col min="4" max="4" width="70.77734375" customWidth="1"/>
+    <x:col min="1" max="1" width="9.00390625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:4" ht="22" customHeight="1">
-      <x:c r="B2" s="10" t="s">
+      <x:c r="B2" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="10"/>
+      <x:c r="D2" s="11"/>
+    </x:row>
+    <x:row r="3" spans="2:4" ht="17.149999999999999">
+      <x:c r="B3" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:4" ht="17.149999999999999">
+      <x:c r="B4" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:4" ht="17.149999999999999">
+      <x:c r="B5" s="8"/>
+      <x:c r="C5" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:4" ht="17.149999999999999">
+      <x:c r="B6" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:4" ht="17.149999999999999">
+      <x:c r="B7" s="8"/>
+      <x:c r="C7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:4" ht="17.149999999999999">
+      <x:c r="B8" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:4" ht="17.149999999999999">
+      <x:c r="B9" s="8"/>
+      <x:c r="C9" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:4" ht="17.149999999999999">
+      <x:c r="B10" s="8"/>
+      <x:c r="C10" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:4" ht="17.149999999999999">
+      <x:c r="B11" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:4" ht="17.5">
+      <x:c r="B12" s="9"/>
+      <x:c r="C12" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:4" ht="22" customHeight="1">
+      <x:c r="B14" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C14" s="10"/>
+      <x:c r="D14" s="11"/>
+    </x:row>
+    <x:row r="15" spans="2:4" ht="17.149999999999999">
+      <x:c r="B15" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C15" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:4" ht="17.149999999999999">
+      <x:c r="B16" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C16" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:4" ht="17.149999999999999">
+      <x:c r="B17" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C17" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:4" ht="17.149999999999999">
+      <x:c r="B18" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C18" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:4" ht="17.149999999999999">
+      <x:c r="B19" s="8"/>
+      <x:c r="C19" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:4" ht="17.149999999999999">
+      <x:c r="B20" s="8"/>
+      <x:c r="C20" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:4" ht="17.149999999999999">
+      <x:c r="B21" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C21" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:4" ht="17.149999999999999">
+      <x:c r="B22" s="8"/>
+      <x:c r="C22" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C2" s="8"/>
-      <x:c r="D2" s="9"/>
-    </x:row>
-    <x:row r="3" spans="2:4">
-      <x:c r="B3" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C3" s="6" t="s">
+    </x:row>
+    <x:row r="23" spans="2:4" ht="17.149999999999999">
+      <x:c r="B23" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C23" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:4" ht="17.149999999999999">
+      <x:c r="B24" s="8"/>
+      <x:c r="C24" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:4" ht="17.149999999999999">
+      <x:c r="B25" s="8" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C25" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:4" ht="17.149999999999999">
+      <x:c r="B26" s="8"/>
+      <x:c r="C26" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:4" ht="17.149999999999999">
+      <x:c r="B27" s="8"/>
+      <x:c r="C27" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:4" ht="17.5">
+      <x:c r="B28" s="9"/>
+      <x:c r="C28" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D28" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:4" ht="22" customHeight="1">
+      <x:c r="B30" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="2:4">
-      <x:c r="B4" s="4" t="s">
+      <x:c r="C30" s="10"/>
+      <x:c r="D30" s="11"/>
+    </x:row>
+    <x:row r="31" spans="2:4" ht="17.149999999999999">
+      <x:c r="B31" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C31" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:4" ht="17.149999999999999">
+      <x:c r="B32" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C32" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="2:4" ht="17.149999999999999">
+      <x:c r="B33" s="8"/>
+      <x:c r="C33" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:4" ht="17.149999999999999">
+      <x:c r="B34" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:4">
-      <x:c r="B5" s="4"/>
-      <x:c r="C5" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:4">
-      <x:c r="B6" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:4">
-      <x:c r="B7" s="4"/>
-      <x:c r="C7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:4">
-      <x:c r="B8" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C8" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:4">
-      <x:c r="B9" s="4"/>
-      <x:c r="C9" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:4">
-      <x:c r="B10" s="4"/>
-      <x:c r="C10" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="C34" s="5" t="s">
         <x:v>39</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="2:4">
-      <x:c r="B11" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:4" ht="17.149999999999999">
-      <x:c r="B12" s="5"/>
-      <x:c r="C12" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:4" ht="22" customHeight="1">
-      <x:c r="B14" s="10" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C14" s="8"/>
-      <x:c r="D14" s="9"/>
-    </x:row>
-    <x:row r="15" spans="2:4">
-      <x:c r="B15" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C15" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:4">
-      <x:c r="B16" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C16" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:4">
-      <x:c r="B17" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C17" s="6" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:4">
-      <x:c r="B18" s="4" t="s">
+      <x:c r="D34" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:4" ht="17.5">
+      <x:c r="B35" s="9"/>
+      <x:c r="C35" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C18" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:4">
-      <x:c r="B19" s="4"/>
-      <x:c r="C19" s="6" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:4">
-      <x:c r="B20" s="4"/>
-      <x:c r="C20" s="6" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="2:4">
-      <x:c r="B21" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C21" s="6" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:4">
-      <x:c r="B22" s="4"/>
-      <x:c r="C22" s="6" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:4">
-      <x:c r="B23" s="4" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C23" s="6" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:4">
-      <x:c r="B24" s="4"/>
-      <x:c r="C24" s="6" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="2:4">
-      <x:c r="B25" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C25" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="s">
+      <x:c r="D35" s="3" t="s">
         <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="2:4">
-      <x:c r="B26" s="4"/>
-      <x:c r="C26" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D26" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="2:4">
-      <x:c r="B27" s="4"/>
-      <x:c r="C27" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:4">
-      <x:c r="B28" s="5"/>
-      <x:c r="C28" s="7" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="2:4" ht="22" customHeight="1">
-      <x:c r="B30" s="10" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C30" s="8"/>
-      <x:c r="D30" s="9"/>
-    </x:row>
-    <x:row r="31" spans="2:4">
-      <x:c r="B31" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C31" s="6" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D31" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="2:4">
-      <x:c r="B32" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C32" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="2:4">
-      <x:c r="B33" s="4"/>
-      <x:c r="C33" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D33" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="2:4">
-      <x:c r="B34" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C34" s="6" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D34" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="2:4">
-      <x:c r="B35" s="5"/>
-      <x:c r="C35" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1514,7 +1511,7 @@
     <x:mergeCell ref="C14:D14"/>
     <x:mergeCell ref="C30:D30"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>